--- a/nbench/list2024.xlsx
+++ b/nbench/list2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\benchmark\nbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98204165-6695-42E8-AB9B-A315176CFF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35AD763-2E99-40ED-8879-49083E4D0B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32160" yWindow="30" windowWidth="19515" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33270" yWindow="585" windowWidth="19515" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="184">
   <si>
     <t>CPU</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>Test Date</t>
+  </si>
+  <si>
+    <t>Tanix TX3 mini</t>
+  </si>
+  <si>
+    <t>Amlogic S905W</t>
   </si>
 </sst>
 </file>
@@ -699,6 +705,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,10 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -996,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A198D7-6D1E-4BFD-BCE5-F3668492731D}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,10 +1083,10 @@
       <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="13">
         <v>40892</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1110,10 +1116,10 @@
       <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="13">
         <v>41122</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1143,10 +1149,10 @@
       <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="13">
         <v>41487</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1176,10 +1182,10 @@
       <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="13">
         <v>41489</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1209,10 +1215,10 @@
       <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <v>41122</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1242,8 +1248,8 @@
       <c r="I7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1273,10 +1279,10 @@
       <c r="I8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <v>41861</v>
       </c>
-      <c r="L8" s="17"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1306,10 +1312,10 @@
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <v>41861</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1339,10 +1345,10 @@
       <c r="I10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="13">
         <v>41861</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1372,10 +1378,10 @@
       <c r="I11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <v>41861</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1405,10 +1411,10 @@
       <c r="I12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <v>42217</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1438,10 +1444,10 @@
       <c r="I13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <v>41797</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1471,10 +1477,10 @@
       <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="13">
         <v>40269</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1504,10 +1510,10 @@
       <c r="I15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="13">
         <v>40017</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1537,10 +1543,10 @@
       <c r="I16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>40026</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1570,10 +1576,10 @@
       <c r="I17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="13">
         <v>41496</v>
       </c>
-      <c r="L17" s="17"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1603,807 +1609,807 @@
       <c r="I18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="13">
         <v>42031</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="C19">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="D19" s="10">
-        <v>11.269</v>
+        <v>8.68</v>
       </c>
       <c r="E19" s="10">
-        <v>11.927</v>
+        <v>10.948</v>
       </c>
       <c r="F19" s="10">
-        <v>20.516999999999999</v>
+        <v>10.154999999999999</v>
       </c>
       <c r="G19" s="11">
-        <v>46.6</v>
+        <v>39.718000000000004</v>
       </c>
       <c r="H19" s="11">
-        <v>37</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="17">
-        <v>40672</v>
-      </c>
-      <c r="L19" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="13">
+        <v>45319</v>
+      </c>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="D20" s="10">
-        <v>12.138</v>
+        <v>11.269</v>
       </c>
       <c r="E20" s="10">
-        <v>12.568</v>
+        <v>11.927</v>
       </c>
       <c r="F20" s="10">
-        <v>21.143999999999998</v>
+        <v>20.516999999999999</v>
       </c>
       <c r="G20" s="11">
-        <v>49.6</v>
+        <v>46.6</v>
       </c>
       <c r="H20" s="11">
-        <v>38.1</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="17">
-        <v>39919</v>
-      </c>
-      <c r="L20" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="J20" s="13">
+        <v>40672</v>
+      </c>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21">
-        <v>1860</v>
+        <v>2000</v>
       </c>
       <c r="D21" s="10">
-        <v>18.433</v>
+        <v>12.138</v>
       </c>
       <c r="E21" s="10">
-        <v>15.15</v>
+        <v>12.568</v>
       </c>
       <c r="F21" s="10">
-        <v>16.635999999999999</v>
+        <v>21.143999999999998</v>
       </c>
       <c r="G21" s="11">
-        <v>66</v>
+        <v>49.6</v>
       </c>
       <c r="H21" s="11">
-        <v>30</v>
+        <v>38.1</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="17">
-        <v>41788</v>
-      </c>
-      <c r="L21" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="J21" s="13">
+        <v>39919</v>
+      </c>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="C22">
-        <v>1800</v>
+        <v>1860</v>
       </c>
       <c r="D22" s="10">
-        <v>13.595000000000001</v>
+        <v>18.433</v>
       </c>
       <c r="E22" s="10">
-        <v>16.120999999999999</v>
+        <v>15.15</v>
       </c>
       <c r="F22" s="10">
-        <v>19.565999999999999</v>
+        <v>16.635999999999999</v>
       </c>
       <c r="G22" s="11">
-        <v>59.9</v>
+        <v>66</v>
       </c>
       <c r="H22" s="11">
-        <v>35.299999999999997</v>
+        <v>30</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="17">
-        <v>40672</v>
-      </c>
-      <c r="L22" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="J22" s="13">
+        <v>41788</v>
+      </c>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C23">
-        <v>1580</v>
+        <v>1800</v>
       </c>
       <c r="D23" s="10">
-        <v>19.981000000000002</v>
+        <v>13.595000000000001</v>
       </c>
       <c r="E23" s="10">
-        <v>16.207000000000001</v>
+        <v>16.120999999999999</v>
       </c>
       <c r="F23" s="10">
-        <v>18.001000000000001</v>
+        <v>19.565999999999999</v>
       </c>
       <c r="G23" s="11">
-        <v>71</v>
+        <v>59.9</v>
       </c>
       <c r="H23" s="11">
-        <v>32.5</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="17">
-        <v>41851</v>
-      </c>
-      <c r="L23" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="J23" s="13">
+        <v>40672</v>
+      </c>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C24">
-        <v>1299</v>
+        <v>1580</v>
       </c>
       <c r="D24" s="10">
-        <v>19.050999999999998</v>
+        <v>19.981000000000002</v>
       </c>
       <c r="E24" s="10">
-        <v>17.286000000000001</v>
+        <v>16.207000000000001</v>
       </c>
       <c r="F24" s="10">
-        <v>25.289000000000001</v>
+        <v>18.001000000000001</v>
       </c>
       <c r="G24" s="11">
-        <v>72.2</v>
+        <v>71</v>
       </c>
       <c r="H24" s="11">
-        <v>45.6</v>
+        <v>32.5</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="17">
-        <v>41861</v>
-      </c>
-      <c r="L24" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="J24" s="13">
+        <v>41851</v>
+      </c>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C25">
-        <v>2527</v>
+        <v>1299</v>
       </c>
       <c r="D25" s="10">
-        <v>28.488</v>
+        <v>19.050999999999998</v>
       </c>
       <c r="E25" s="10">
-        <v>17.780999999999999</v>
+        <v>17.286000000000001</v>
       </c>
       <c r="F25" s="10">
-        <v>36.673000000000002</v>
+        <v>25.289000000000001</v>
       </c>
       <c r="G25" s="11">
-        <v>87.2</v>
+        <v>72.2</v>
       </c>
       <c r="H25" s="11">
-        <v>66.099999999999994</v>
+        <v>45.6</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="17">
-        <v>41457</v>
-      </c>
-      <c r="L25" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="13">
+        <v>41861</v>
+      </c>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C26">
-        <v>1600</v>
+        <v>2527</v>
       </c>
       <c r="D26" s="10">
-        <v>23.695</v>
+        <v>28.488</v>
       </c>
       <c r="E26" s="10">
-        <v>17.817</v>
+        <v>17.780999999999999</v>
       </c>
       <c r="F26" s="10">
-        <v>25.515999999999998</v>
+        <v>36.673000000000002</v>
       </c>
       <c r="G26" s="11">
-        <v>80.7</v>
+        <v>87.2</v>
       </c>
       <c r="H26" s="11">
-        <v>46</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="17">
-        <v>44089</v>
-      </c>
-      <c r="L26" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="J26" s="13">
+        <v>41457</v>
+      </c>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C27">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="D27" s="10">
-        <v>18.776</v>
+        <v>23.695</v>
       </c>
       <c r="E27" s="10">
-        <v>17.878</v>
+        <v>17.817</v>
       </c>
       <c r="F27" s="10">
-        <v>29.106000000000002</v>
+        <v>25.515999999999998</v>
       </c>
       <c r="G27" s="11">
-        <v>73.2</v>
+        <v>80.7</v>
       </c>
       <c r="H27" s="11">
-        <v>52.5</v>
+        <v>46</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="17">
-        <v>43641</v>
-      </c>
-      <c r="L27" s="17"/>
+      <c r="J27" s="13">
+        <v>44089</v>
+      </c>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C28">
-        <v>2607</v>
+        <v>1400</v>
       </c>
       <c r="D28" s="10">
-        <v>18.265000000000001</v>
+        <v>18.776</v>
       </c>
       <c r="E28" s="10">
-        <v>18.957999999999998</v>
+        <v>17.878</v>
       </c>
       <c r="F28" s="10">
-        <v>31.843</v>
+        <v>29.106000000000002</v>
       </c>
       <c r="G28" s="11">
-        <v>74.8</v>
+        <v>73.2</v>
       </c>
       <c r="H28" s="11">
-        <v>57.4</v>
+        <v>52.5</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="17">
-        <v>41151</v>
-      </c>
-      <c r="L28" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="13">
+        <v>43641</v>
+      </c>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C29">
-        <v>2100</v>
+        <v>2607</v>
       </c>
       <c r="D29" s="10">
-        <v>14.395</v>
+        <v>18.265000000000001</v>
       </c>
       <c r="E29" s="10">
-        <v>19.298999999999999</v>
+        <v>18.957999999999998</v>
       </c>
       <c r="F29" s="10">
-        <v>23.132000000000001</v>
+        <v>31.843</v>
       </c>
       <c r="G29" s="11">
-        <v>68.2</v>
+        <v>74.8</v>
       </c>
       <c r="H29" s="11">
-        <v>41.7</v>
+        <v>57.4</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="17">
-        <v>40060</v>
-      </c>
-      <c r="L29" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="J29" s="13">
+        <v>41151</v>
+      </c>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C30">
-        <v>2266</v>
+        <v>2100</v>
       </c>
       <c r="D30" s="10">
-        <v>28.631</v>
+        <v>14.395</v>
       </c>
       <c r="E30" s="10">
-        <v>19.780999999999999</v>
+        <v>19.298999999999999</v>
       </c>
       <c r="F30" s="10">
-        <v>31.140999999999998</v>
+        <v>23.132000000000001</v>
       </c>
       <c r="G30" s="11">
-        <v>92.9</v>
+        <v>68.2</v>
       </c>
       <c r="H30" s="11">
-        <v>56.1</v>
+        <v>41.7</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="17">
-        <v>42713</v>
-      </c>
-      <c r="L30" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="J30" s="13">
+        <v>40060</v>
+      </c>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C31">
-        <v>2043</v>
+        <v>2266</v>
       </c>
       <c r="D31" s="10">
-        <v>19.359000000000002</v>
+        <v>28.631</v>
       </c>
       <c r="E31" s="10">
-        <v>19.808</v>
+        <v>19.780999999999999</v>
       </c>
       <c r="F31" s="10">
-        <v>33.182000000000002</v>
+        <v>31.140999999999998</v>
       </c>
       <c r="G31" s="11">
-        <v>78.599999999999994</v>
+        <v>92.9</v>
       </c>
       <c r="H31" s="11">
-        <v>59.8</v>
+        <v>56.1</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="17">
-        <v>41919</v>
-      </c>
-      <c r="L31" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="J31" s="13">
+        <v>42713</v>
+      </c>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C32">
-        <v>2832</v>
+        <v>2043</v>
       </c>
       <c r="D32" s="10">
-        <v>33.670999999999999</v>
+        <v>19.359000000000002</v>
       </c>
       <c r="E32" s="10">
-        <v>23.584</v>
+        <v>19.808</v>
       </c>
       <c r="F32" s="10">
-        <v>36.384</v>
+        <v>33.182000000000002</v>
       </c>
       <c r="G32" s="11">
-        <v>110.1</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="H32" s="11">
-        <v>65.599999999999994</v>
+        <v>59.8</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" s="17">
-        <v>42443</v>
-      </c>
-      <c r="L32" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="J32" s="13">
+        <v>41919</v>
+      </c>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="C33">
-        <v>3066</v>
+        <v>2832</v>
       </c>
       <c r="D33" s="10">
-        <v>28.776</v>
+        <v>33.670999999999999</v>
       </c>
       <c r="E33" s="10">
-        <v>23.881</v>
+        <v>23.584</v>
       </c>
       <c r="F33" s="10">
-        <v>47.396000000000001</v>
+        <v>36.384</v>
       </c>
       <c r="G33" s="11">
-        <v>103.658</v>
+        <v>110.1</v>
       </c>
       <c r="H33" s="11">
-        <v>85.453000000000003</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="J33" s="17">
-        <v>44691</v>
-      </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="J33" s="13">
+        <v>42443</v>
+      </c>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="C34">
-        <v>3200</v>
+        <v>3066</v>
       </c>
       <c r="D34" s="10">
-        <v>37.845999999999997</v>
+        <v>28.776</v>
       </c>
       <c r="E34" s="10">
-        <v>23.882000000000001</v>
+        <v>23.881</v>
       </c>
       <c r="F34" s="10">
-        <v>47.436999999999998</v>
+        <v>47.396000000000001</v>
       </c>
       <c r="G34" s="11">
-        <v>116.6</v>
+        <v>103.658</v>
       </c>
       <c r="H34" s="11">
-        <v>85.5</v>
+        <v>85.453000000000003</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="17">
-        <v>41537</v>
-      </c>
-      <c r="L34" s="17"/>
+        <v>176</v>
+      </c>
+      <c r="J34" s="13">
+        <v>44691</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35">
-        <v>2667</v>
+        <v>3200</v>
       </c>
       <c r="D35" s="10">
-        <v>24.206</v>
+        <v>37.845999999999997</v>
       </c>
       <c r="E35" s="10">
-        <v>24.602</v>
+        <v>23.882000000000001</v>
       </c>
       <c r="F35" s="10">
-        <v>41.085000000000001</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>10</v>
+        <v>47.436999999999998</v>
+      </c>
+      <c r="G35" s="11">
+        <v>116.6</v>
+      </c>
+      <c r="H35" s="11">
+        <v>85.5</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="17">
-        <v>40683</v>
-      </c>
-      <c r="L35" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="13">
+        <v>41537</v>
+      </c>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C36">
-        <v>2829</v>
+        <v>2667</v>
       </c>
       <c r="D36" s="10">
-        <v>21.475999999999999</v>
+        <v>24.206</v>
       </c>
       <c r="E36" s="10">
-        <v>25.608000000000001</v>
+        <v>24.602</v>
       </c>
       <c r="F36" s="10">
-        <v>30.663</v>
-      </c>
-      <c r="G36" s="11">
-        <v>95.2</v>
-      </c>
-      <c r="H36" s="11">
-        <v>55.3</v>
+        <v>41.085000000000001</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="17">
-        <v>39896</v>
-      </c>
-      <c r="L36" s="17"/>
+        <v>64</v>
+      </c>
+      <c r="J36" s="13">
+        <v>40683</v>
+      </c>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C37">
-        <v>3352</v>
+        <v>2829</v>
       </c>
       <c r="D37" s="10">
-        <v>28.021999999999998</v>
+        <v>21.475999999999999</v>
       </c>
       <c r="E37" s="10">
-        <v>32.585999999999999</v>
+        <v>25.608000000000001</v>
       </c>
       <c r="F37" s="10">
-        <v>44.103999999999999</v>
+        <v>30.663</v>
       </c>
       <c r="G37" s="11">
-        <v>122.4</v>
+        <v>95.2</v>
       </c>
       <c r="H37" s="11">
-        <v>79.2</v>
+        <v>55.3</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="17">
-        <v>42315</v>
-      </c>
-      <c r="L37" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="J37" s="13">
+        <v>39896</v>
+      </c>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38">
         <v>3352</v>
       </c>
       <c r="D38" s="10">
-        <v>25.033999999999999</v>
+        <v>28.021999999999998</v>
       </c>
       <c r="E38" s="10">
-        <v>32.850999999999999</v>
+        <v>32.585999999999999</v>
       </c>
       <c r="F38" s="10">
-        <v>40.966999999999999</v>
+        <v>44.103999999999999</v>
       </c>
       <c r="G38" s="11">
-        <v>117.2</v>
+        <v>122.4</v>
       </c>
       <c r="H38" s="11">
-        <v>73.900000000000006</v>
+        <v>79.2</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="13">
         <v>42315</v>
       </c>
-      <c r="L38" s="17"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="C39">
-        <v>2300</v>
+        <v>3352</v>
       </c>
       <c r="D39" s="10">
-        <v>39.049999999999997</v>
+        <v>25.033999999999999</v>
       </c>
       <c r="E39" s="10">
-        <v>33.215000000000003</v>
+        <v>32.850999999999999</v>
       </c>
       <c r="F39" s="10">
-        <v>54.26</v>
+        <v>40.966999999999999</v>
       </c>
       <c r="G39" s="11">
-        <v>142.69999999999999</v>
+        <v>117.2</v>
       </c>
       <c r="H39" s="11">
-        <v>97.8</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="17">
-        <v>42397</v>
-      </c>
-      <c r="L39" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="J39" s="13">
+        <v>42315</v>
+      </c>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C40">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="D40" s="10">
-        <v>40.698999999999998</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="E40" s="10">
-        <v>37.018000000000001</v>
+        <v>33.215000000000003</v>
       </c>
       <c r="F40" s="10">
-        <v>52.634999999999998</v>
+        <v>54.26</v>
       </c>
       <c r="G40" s="11">
-        <v>154.5</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="H40" s="11">
-        <v>94.9</v>
+        <v>97.8</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J40" s="17">
+        <v>10</v>
+      </c>
+      <c r="J40" s="13">
         <v>42397</v>
       </c>
-      <c r="L40" s="17"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="D41" s="10">
-        <v>45.381999999999998</v>
+        <v>40.698999999999998</v>
       </c>
       <c r="E41" s="10">
-        <v>40.313000000000002</v>
+        <v>37.018000000000001</v>
       </c>
       <c r="F41" s="10">
-        <v>61.804000000000002</v>
+        <v>52.634999999999998</v>
       </c>
       <c r="G41" s="11">
-        <v>169.9</v>
+        <v>154.5</v>
       </c>
       <c r="H41" s="11">
-        <v>111.4</v>
+        <v>94.9</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J41" s="17">
-        <v>42817</v>
-      </c>
-      <c r="L41" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="J41" s="13">
+        <v>42397</v>
+      </c>
+      <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C42">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="D42" s="10">
-        <v>54.363</v>
+        <v>45.381999999999998</v>
       </c>
       <c r="E42" s="10">
-        <v>41.972000000000001</v>
+        <v>40.313000000000002</v>
       </c>
       <c r="F42" s="10">
-        <v>106.893</v>
+        <v>61.804000000000002</v>
       </c>
       <c r="G42" s="11">
-        <v>187.91900000000001</v>
+        <v>169.9</v>
       </c>
       <c r="H42" s="11">
-        <v>192.7</v>
+        <v>111.4</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J42" s="17">
-        <v>44153</v>
-      </c>
-      <c r="L42" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="J42" s="13">
+        <v>42817</v>
+      </c>
+      <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
         <v>166</v>
@@ -2412,206 +2418,239 @@
         <v>2700</v>
       </c>
       <c r="D43" s="10">
-        <v>57.2</v>
+        <v>54.363</v>
       </c>
       <c r="E43" s="10">
-        <v>43.731999999999999</v>
+        <v>41.972000000000001</v>
       </c>
       <c r="F43" s="10">
-        <v>107.95399999999999</v>
+        <v>106.893</v>
       </c>
       <c r="G43" s="11">
-        <v>196.6</v>
+        <v>187.91900000000001</v>
       </c>
       <c r="H43" s="11">
-        <v>194.6</v>
-      </c>
-      <c r="J43" s="17">
-        <v>44155</v>
-      </c>
-      <c r="L43" s="17"/>
+        <v>192.7</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="13">
+        <v>44153</v>
+      </c>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C44">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="D44" s="10">
-        <v>55.045999999999999</v>
+        <v>57.2</v>
       </c>
       <c r="E44" s="10">
-        <v>44.618000000000002</v>
+        <v>43.731999999999999</v>
       </c>
       <c r="F44" s="10">
-        <v>73.569999999999993</v>
+        <v>107.95399999999999</v>
       </c>
       <c r="G44" s="11">
-        <v>195.6</v>
+        <v>196.6</v>
       </c>
       <c r="H44" s="11">
-        <v>132.6</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" s="17">
-        <v>43355</v>
-      </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="17"/>
+        <v>194.6</v>
+      </c>
+      <c r="J44" s="13">
+        <v>44155</v>
+      </c>
+      <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C45">
         <v>2600</v>
       </c>
       <c r="D45" s="10">
-        <v>63.682000000000002</v>
+        <v>55.045999999999999</v>
       </c>
       <c r="E45" s="10">
-        <v>45.731999999999999</v>
+        <v>44.618000000000002</v>
       </c>
       <c r="F45" s="10">
-        <v>68.159000000000006</v>
+        <v>73.569999999999993</v>
       </c>
       <c r="G45" s="11">
-        <v>211.2</v>
+        <v>195.6</v>
       </c>
       <c r="H45" s="11">
-        <v>122.9</v>
+        <v>132.6</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" s="17">
-        <v>43146</v>
+        <v>77</v>
+      </c>
+      <c r="J45" s="13">
+        <v>43355</v>
       </c>
       <c r="K45" s="7"/>
-      <c r="L45" s="17"/>
+      <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="D46" s="10">
-        <v>50.423000000000002</v>
+        <v>63.682000000000002</v>
       </c>
       <c r="E46" s="10">
-        <v>46.116999999999997</v>
+        <v>45.731999999999999</v>
       </c>
       <c r="F46" s="10">
-        <v>70.039000000000001</v>
+        <v>68.159000000000006</v>
       </c>
       <c r="G46" s="11">
-        <v>192</v>
+        <v>211.2</v>
       </c>
       <c r="H46" s="11">
-        <v>126.3</v>
+        <v>122.9</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="13">
         <v>43146</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="17"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="C47">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="D47" s="10">
-        <v>77.174000000000007</v>
+        <v>50.423000000000002</v>
       </c>
       <c r="E47" s="10">
-        <v>56.761000000000003</v>
+        <v>46.116999999999997</v>
       </c>
       <c r="F47" s="10">
-        <v>138.00299999999999</v>
+        <v>70.039000000000001</v>
       </c>
       <c r="G47" s="11">
-        <v>259.47000000000003</v>
+        <v>192</v>
       </c>
       <c r="H47" s="11">
-        <v>248.81200000000001</v>
+        <v>126.3</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="18">
-        <v>45211</v>
+        <v>10</v>
+      </c>
+      <c r="J47" s="13">
+        <v>43146</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="17"/>
+      <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48">
+        <v>3600</v>
+      </c>
+      <c r="D48" s="10">
+        <v>77.174000000000007</v>
+      </c>
+      <c r="E48" s="10">
+        <v>56.761000000000003</v>
+      </c>
+      <c r="F48" s="10">
+        <v>138.00299999999999</v>
+      </c>
+      <c r="G48" s="11">
+        <v>259.47000000000003</v>
+      </c>
+      <c r="H48" s="11">
+        <v>248.81200000000001</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="14">
+        <v>45211</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>167</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>168</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>2667</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J48" s="17">
-        <v>43956</v>
-      </c>
-      <c r="L48" s="17"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49" s="13">
+        <v>43956</v>
+      </c>
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F50" s="10"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F51" s="10"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J53" s="7"/>
     </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J54" s="7"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J48">
-    <sortCondition ref="E2:E48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
+    <sortCondition ref="E2:E49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7242,7 +7281,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7254,10 +7293,10 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -7265,7 +7304,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7275,8 +7314,8 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
@@ -7423,22 +7462,22 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="17">
         <v>2.7480000000000002</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="17">
         <v>3.282</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="17">
         <v>3.7109999999999999</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="18">
         <v>12.8</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="18">
         <v>6.69</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7446,33 +7485,33 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="17">
         <v>3.665</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="17">
         <v>5.46</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="17">
         <v>4.6849999999999996</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="18">
         <v>18.399999999999999</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="18">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7480,12 +7519,12 @@
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -7629,22 +7668,22 @@
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="17">
         <v>4.5910000000000002</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="17">
         <v>9.8949999999999996</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="17">
         <v>9.0860000000000003</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="18">
         <v>28.5</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="18">
         <v>16.399999999999999</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7652,12 +7691,12 @@
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -8281,7 +8320,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -8293,10 +8332,10 @@
       <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -8304,7 +8343,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="1" t="s">
         <v>2</v>
       </c>
@@ -8314,14 +8353,30 @@
       <c r="D49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:F49"/>
@@ -8330,22 +8385,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://pdadb.net/index.php?m=cpu&amp;id=a6422&amp;c=samsung_s5p6422" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/nbench/list2024.xlsx
+++ b/nbench/list2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\benchmark\nbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35AD763-2E99-40ED-8879-49083E4D0B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D4B20-EEAC-49BA-956B-203E16CA8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33270" yWindow="585" windowWidth="19515" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16995" yWindow="1995" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="221">
   <si>
     <t>CPU</t>
   </si>
@@ -581,6 +581,117 @@
   </si>
   <si>
     <t>Amlogic S905W</t>
+  </si>
+  <si>
+    <t>HP mini 400 G9</t>
+  </si>
+  <si>
+    <t>i7 13700T</t>
+  </si>
+  <si>
+    <t>Mark PC</t>
+  </si>
+  <si>
+    <t>49.100s</t>
+  </si>
+  <si>
+    <t>33.800s</t>
+  </si>
+  <si>
+    <t>42.056s</t>
+  </si>
+  <si>
+    <t>49.400s</t>
+  </si>
+  <si>
+    <t>43.033s</t>
+  </si>
+  <si>
+    <t>17.437s</t>
+  </si>
+  <si>
+    <t>30.700s</t>
+  </si>
+  <si>
+    <t>06.917s</t>
+  </si>
+  <si>
+    <t>08.748s</t>
+  </si>
+  <si>
+    <t>10.164s</t>
+  </si>
+  <si>
+    <t>10.712s</t>
+  </si>
+  <si>
+    <t>12.264s</t>
+  </si>
+  <si>
+    <t>13.145s</t>
+  </si>
+  <si>
+    <t>16.300s</t>
+  </si>
+  <si>
+    <t>34.300s</t>
+  </si>
+  <si>
+    <t>14.700s</t>
+  </si>
+  <si>
+    <t>18.923s</t>
+  </si>
+  <si>
+    <t>18.473s</t>
+  </si>
+  <si>
+    <t>25.700s</t>
+  </si>
+  <si>
+    <t>22.112s</t>
+  </si>
+  <si>
+    <t>10.044s</t>
+  </si>
+  <si>
+    <t>Proxmox 1226</t>
+  </si>
+  <si>
+    <t>E3-1226 v3</t>
+  </si>
+  <si>
+    <t>50.264s</t>
+  </si>
+  <si>
+    <t>14.800s</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4</t>
+  </si>
+  <si>
+    <t>BCM2711</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>BCM2837 B0</t>
+  </si>
+  <si>
+    <t>HP mini 800 G4</t>
+  </si>
+  <si>
+    <t>i5 8500T</t>
+  </si>
+  <si>
+    <t>10.900s</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MacBook Air 2020 </t>
   </si>
 </sst>
 </file>
@@ -624,7 +735,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +772,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -675,7 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -720,6 +849,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1002,11 +1139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A198D7-6D1E-4BFD-BCE5-F3668492731D}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,10 +1193,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C2">
@@ -1122,10 +1259,10 @@
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>146</v>
       </c>
       <c r="C4">
@@ -1188,10 +1325,10 @@
       <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="19" t="s">
         <v>147</v>
       </c>
       <c r="C6">
@@ -1252,10 +1389,10 @@
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="19" t="s">
         <v>143</v>
       </c>
       <c r="C8">
@@ -1285,13 +1422,13 @@
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="20">
         <v>933</v>
       </c>
       <c r="D9" s="10">
@@ -1318,10 +1455,10 @@
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="19" t="s">
         <v>144</v>
       </c>
       <c r="C10">
@@ -1384,10 +1521,10 @@
       <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="19" t="s">
         <v>116</v>
       </c>
       <c r="C12">
@@ -1417,13 +1554,13 @@
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="20">
         <v>1200</v>
       </c>
       <c r="D13" s="10">
@@ -1450,13 +1587,13 @@
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="20">
         <v>1666</v>
       </c>
       <c r="D14" s="10">
@@ -1516,13 +1653,13 @@
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="20">
         <v>1600</v>
       </c>
       <c r="D16" s="10">
@@ -1549,13 +1686,13 @@
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="20">
         <v>1666</v>
       </c>
       <c r="D17" s="10">
@@ -1583,1074 +1720,1225 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18">
+        <v>1200</v>
+      </c>
+      <c r="D18" s="10">
+        <v>6.78</v>
+      </c>
+      <c r="E18" s="10">
+        <v>9.5239999999999991</v>
+      </c>
+      <c r="F18" s="10">
+        <v>9.1739999999999995</v>
+      </c>
+      <c r="G18" s="11">
+        <v>33</v>
+      </c>
+      <c r="H18" s="11">
+        <v>16.5</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="13">
+        <v>45298</v>
+      </c>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>1512</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>4.5910000000000002</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>9.8949999999999996</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>9.0860000000000003</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>28.5</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H19" s="11">
         <v>16.399999999999999</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="I19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="13">
         <v>42031</v>
-      </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19">
-        <v>1200</v>
-      </c>
-      <c r="D19" s="10">
-        <v>8.68</v>
-      </c>
-      <c r="E19" s="10">
-        <v>10.948</v>
-      </c>
-      <c r="F19" s="10">
-        <v>10.154999999999999</v>
-      </c>
-      <c r="G19" s="11">
-        <v>39.718000000000004</v>
-      </c>
-      <c r="H19" s="11">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="13">
-        <v>45319</v>
       </c>
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="C20">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="D20" s="10">
-        <v>11.269</v>
+        <v>8.68</v>
       </c>
       <c r="E20" s="10">
-        <v>11.927</v>
+        <v>10.948</v>
       </c>
       <c r="F20" s="10">
-        <v>20.516999999999999</v>
+        <v>10.154999999999999</v>
       </c>
       <c r="G20" s="11">
-        <v>46.6</v>
+        <v>39.718000000000004</v>
       </c>
       <c r="H20" s="11">
-        <v>37</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J20" s="13">
-        <v>40672</v>
+        <v>45319</v>
       </c>
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21">
+        <v>1800</v>
+      </c>
+      <c r="D21" s="10">
+        <v>11.269</v>
+      </c>
+      <c r="E21" s="10">
+        <v>11.927</v>
+      </c>
+      <c r="F21" s="10">
+        <v>20.516999999999999</v>
+      </c>
+      <c r="G21" s="11">
+        <v>46.6</v>
+      </c>
+      <c r="H21" s="11">
+        <v>37</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="13">
+        <v>40672</v>
+      </c>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="20">
         <v>2000</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>12.138</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E22" s="10">
         <v>12.568</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>21.143999999999998</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>49.6</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="11">
         <v>38.1</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="I22" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" s="13">
         <v>39919</v>
       </c>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="20">
         <v>1860</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>18.433</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>15.15</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>16.635999999999999</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>66</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H23" s="11">
         <v>30</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="13">
+      <c r="I23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="13">
         <v>41788</v>
-      </c>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23">
-        <v>1800</v>
-      </c>
-      <c r="D23" s="10">
-        <v>13.595000000000001</v>
-      </c>
-      <c r="E23" s="10">
-        <v>16.120999999999999</v>
-      </c>
-      <c r="F23" s="10">
-        <v>19.565999999999999</v>
-      </c>
-      <c r="G23" s="11">
-        <v>59.9</v>
-      </c>
-      <c r="H23" s="11">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J23" s="13">
-        <v>40672</v>
       </c>
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24">
+        <v>1800</v>
+      </c>
+      <c r="D24" s="10">
+        <v>13.595000000000001</v>
+      </c>
+      <c r="E24" s="10">
+        <v>16.120999999999999</v>
+      </c>
+      <c r="F24" s="10">
+        <v>19.565999999999999</v>
+      </c>
+      <c r="G24" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="H24" s="11">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="13">
+        <v>40672</v>
+      </c>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C24">
+      <c r="C25" s="20">
         <v>1580</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>19.981000000000002</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>16.207000000000001</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>18.001000000000001</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>71</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <v>32.5</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="I25" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" s="13">
         <v>41851</v>
       </c>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="20">
         <v>1299</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>19.050999999999998</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>17.286000000000001</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>25.289000000000001</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>72.2</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H26" s="11">
         <v>45.6</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="13">
+      <c r="I26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="13">
         <v>41861</v>
-      </c>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26">
-        <v>2527</v>
-      </c>
-      <c r="D26" s="10">
-        <v>28.488</v>
-      </c>
-      <c r="E26" s="10">
-        <v>17.780999999999999</v>
-      </c>
-      <c r="F26" s="10">
-        <v>36.673000000000002</v>
-      </c>
-      <c r="G26" s="11">
-        <v>87.2</v>
-      </c>
-      <c r="H26" s="11">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="13">
-        <v>41457</v>
       </c>
       <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <v>2527</v>
+      </c>
+      <c r="D27" s="10">
+        <v>28.488</v>
+      </c>
+      <c r="E27" s="10">
+        <v>17.780999999999999</v>
+      </c>
+      <c r="F27" s="10">
+        <v>36.673000000000002</v>
+      </c>
+      <c r="G27" s="11">
+        <v>87.2</v>
+      </c>
+      <c r="H27" s="11">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="13">
+        <v>41457</v>
+      </c>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1600</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>23.695</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>17.817</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>25.515999999999998</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>80.7</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H28" s="11">
         <v>46</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="I28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="13">
         <v>44089</v>
       </c>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C28">
+      <c r="C29" s="20">
         <v>1400</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>18.776</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>17.878</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>29.106000000000002</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>73.2</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <v>52.5</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="13">
+      <c r="I29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="13">
         <v>43641</v>
-      </c>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29">
-        <v>2607</v>
-      </c>
-      <c r="D29" s="10">
-        <v>18.265000000000001</v>
-      </c>
-      <c r="E29" s="10">
-        <v>18.957999999999998</v>
-      </c>
-      <c r="F29" s="10">
-        <v>31.843</v>
-      </c>
-      <c r="G29" s="11">
-        <v>74.8</v>
-      </c>
-      <c r="H29" s="11">
-        <v>57.4</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="13">
-        <v>41151</v>
       </c>
       <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="C30">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="D30" s="10">
-        <v>14.395</v>
+        <v>15.319000000000001</v>
       </c>
       <c r="E30" s="10">
-        <v>19.298999999999999</v>
+        <v>18.061</v>
       </c>
       <c r="F30" s="10">
-        <v>23.132000000000001</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="G30" s="11">
-        <v>68.2</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="H30" s="11">
-        <v>41.7</v>
+        <v>62.4</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="J30" s="13">
-        <v>40060</v>
+        <v>45561</v>
       </c>
       <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C31">
-        <v>2266</v>
+        <v>2607</v>
       </c>
       <c r="D31" s="10">
-        <v>28.631</v>
+        <v>18.265000000000001</v>
       </c>
       <c r="E31" s="10">
-        <v>19.780999999999999</v>
+        <v>18.957999999999998</v>
       </c>
       <c r="F31" s="10">
-        <v>31.140999999999998</v>
+        <v>31.843</v>
       </c>
       <c r="G31" s="11">
-        <v>92.9</v>
+        <v>74.8</v>
       </c>
       <c r="H31" s="11">
-        <v>56.1</v>
+        <v>57.4</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="J31" s="13">
-        <v>42713</v>
+        <v>41151</v>
       </c>
       <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32">
+        <v>2100</v>
+      </c>
+      <c r="D32" s="10">
+        <v>14.395</v>
+      </c>
+      <c r="E32" s="10">
+        <v>19.298999999999999</v>
+      </c>
+      <c r="F32" s="10">
+        <v>23.132000000000001</v>
+      </c>
+      <c r="G32" s="11">
+        <v>68.2</v>
+      </c>
+      <c r="H32" s="11">
+        <v>41.7</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="13">
+        <v>40060</v>
+      </c>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="20">
+        <v>2266</v>
+      </c>
+      <c r="D33" s="10">
+        <v>28.631</v>
+      </c>
+      <c r="E33" s="10">
+        <v>19.780999999999999</v>
+      </c>
+      <c r="F33" s="10">
+        <v>31.140999999999998</v>
+      </c>
+      <c r="G33" s="11">
+        <v>92.9</v>
+      </c>
+      <c r="H33" s="11">
+        <v>56.1</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="13">
+        <v>42713</v>
+      </c>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C32">
+      <c r="C34" s="20">
         <v>2043</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D34" s="10">
         <v>19.359000000000002</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E34" s="10">
         <v>19.808</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F34" s="10">
         <v>33.182000000000002</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G34" s="11">
         <v>78.599999999999994</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H34" s="11">
         <v>59.8</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="13">
+      <c r="I34" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="13">
         <v>41919</v>
       </c>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33">
-        <v>2832</v>
-      </c>
-      <c r="D33" s="10">
-        <v>33.670999999999999</v>
-      </c>
-      <c r="E33" s="10">
-        <v>23.584</v>
-      </c>
-      <c r="F33" s="10">
-        <v>36.384</v>
-      </c>
-      <c r="G33" s="11">
-        <v>110.1</v>
-      </c>
-      <c r="H33" s="11">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="13">
-        <v>42443</v>
-      </c>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34">
-        <v>3066</v>
-      </c>
-      <c r="D34" s="10">
-        <v>28.776</v>
-      </c>
-      <c r="E34" s="10">
-        <v>23.881</v>
-      </c>
-      <c r="F34" s="10">
-        <v>47.396000000000001</v>
-      </c>
-      <c r="G34" s="11">
-        <v>103.658</v>
-      </c>
-      <c r="H34" s="11">
-        <v>85.453000000000003</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="J34" s="13">
-        <v>44691</v>
-      </c>
-      <c r="K34" s="5"/>
       <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C35">
-        <v>3200</v>
+        <v>2832</v>
       </c>
       <c r="D35" s="10">
-        <v>37.845999999999997</v>
+        <v>33.670999999999999</v>
       </c>
       <c r="E35" s="10">
-        <v>23.882000000000001</v>
+        <v>23.584</v>
       </c>
       <c r="F35" s="10">
-        <v>47.436999999999998</v>
+        <v>36.384</v>
       </c>
       <c r="G35" s="11">
-        <v>116.6</v>
+        <v>110.1</v>
       </c>
       <c r="H35" s="11">
-        <v>85.5</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="J35" s="13">
-        <v>41537</v>
+        <v>42443</v>
       </c>
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C36">
-        <v>2667</v>
+        <v>3066</v>
       </c>
       <c r="D36" s="10">
-        <v>24.206</v>
+        <v>28.776</v>
       </c>
       <c r="E36" s="10">
-        <v>24.602</v>
+        <v>23.881</v>
       </c>
       <c r="F36" s="10">
-        <v>41.085000000000001</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>10</v>
+        <v>47.396000000000001</v>
+      </c>
+      <c r="G36" s="11">
+        <v>103.658</v>
+      </c>
+      <c r="H36" s="11">
+        <v>85.453000000000003</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="J36" s="13">
-        <v>40683</v>
-      </c>
+        <v>44691</v>
+      </c>
+      <c r="K36" s="5"/>
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C37">
-        <v>2829</v>
+        <v>3200</v>
       </c>
       <c r="D37" s="10">
-        <v>21.475999999999999</v>
+        <v>37.845999999999997</v>
       </c>
       <c r="E37" s="10">
-        <v>25.608000000000001</v>
+        <v>23.882000000000001</v>
       </c>
       <c r="F37" s="10">
-        <v>30.663</v>
+        <v>47.436999999999998</v>
       </c>
       <c r="G37" s="11">
-        <v>95.2</v>
+        <v>116.6</v>
       </c>
       <c r="H37" s="11">
-        <v>55.3</v>
+        <v>85.5</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J37" s="13">
-        <v>39896</v>
+        <v>41537</v>
       </c>
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C38">
-        <v>3352</v>
+        <v>2667</v>
       </c>
       <c r="D38" s="10">
-        <v>28.021999999999998</v>
+        <v>24.206</v>
       </c>
       <c r="E38" s="10">
-        <v>32.585999999999999</v>
+        <v>24.602</v>
       </c>
       <c r="F38" s="10">
-        <v>44.103999999999999</v>
-      </c>
-      <c r="G38" s="11">
-        <v>122.4</v>
-      </c>
-      <c r="H38" s="11">
-        <v>79.2</v>
+        <v>41.085000000000001</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="J38" s="13">
-        <v>42315</v>
+        <v>40683</v>
       </c>
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C39">
-        <v>3352</v>
+        <v>2829</v>
       </c>
       <c r="D39" s="10">
-        <v>25.033999999999999</v>
+        <v>21.475999999999999</v>
       </c>
       <c r="E39" s="10">
-        <v>32.850999999999999</v>
+        <v>25.608000000000001</v>
       </c>
       <c r="F39" s="10">
-        <v>40.966999999999999</v>
+        <v>30.663</v>
       </c>
       <c r="G39" s="11">
-        <v>117.2</v>
+        <v>95.2</v>
       </c>
       <c r="H39" s="11">
-        <v>73.900000000000006</v>
+        <v>55.3</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="J39" s="13">
-        <v>42315</v>
+        <v>39896</v>
       </c>
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C40">
-        <v>2300</v>
+        <v>2667</v>
       </c>
       <c r="D40" s="10">
-        <v>39.049999999999997</v>
+        <v>27.460999999999999</v>
       </c>
       <c r="E40" s="10">
-        <v>33.215000000000003</v>
+        <v>26.341999999999999</v>
       </c>
       <c r="F40" s="10">
-        <v>54.26</v>
+        <v>27.893999999999998</v>
       </c>
       <c r="G40" s="11">
-        <v>142.69999999999999</v>
+        <v>107.5</v>
       </c>
       <c r="H40" s="11">
-        <v>97.8</v>
+        <v>86.4</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="J40" s="13">
-        <v>42397</v>
+        <v>43956</v>
       </c>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41">
+        <v>3352</v>
+      </c>
+      <c r="D41" s="10">
+        <v>28.021999999999998</v>
+      </c>
+      <c r="E41" s="10">
+        <v>32.585999999999999</v>
+      </c>
+      <c r="F41" s="10">
+        <v>44.103999999999999</v>
+      </c>
+      <c r="G41" s="11">
+        <v>122.4</v>
+      </c>
+      <c r="H41" s="11">
+        <v>79.2</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J41" s="13">
+        <v>42315</v>
+      </c>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="20">
+        <v>2300</v>
+      </c>
+      <c r="D42" s="10">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="E42" s="10">
+        <v>33.215000000000003</v>
+      </c>
+      <c r="F42" s="10">
+        <v>54.26</v>
+      </c>
+      <c r="G42" s="11">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="H42" s="11">
+        <v>97.8</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="13">
+        <v>42397</v>
+      </c>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C41">
+      <c r="C43" s="20">
         <v>2500</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D43" s="10">
         <v>40.698999999999998</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E43" s="10">
         <v>37.018000000000001</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F43" s="10">
         <v>52.634999999999998</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G43" s="11">
         <v>154.5</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H43" s="11">
         <v>94.9</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" s="13">
+      <c r="I43" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J43" s="13">
         <v>42397</v>
       </c>
-      <c r="L41" s="13"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C42">
+      <c r="C44" s="20">
         <v>2600</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D44" s="10">
         <v>45.381999999999998</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E44" s="10">
         <v>40.313000000000002</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F44" s="10">
         <v>61.804000000000002</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G44" s="11">
         <v>169.9</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H44" s="11">
         <v>111.4</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" s="13">
+      <c r="I44" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="13">
         <v>42817</v>
-      </c>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43">
-        <v>2700</v>
-      </c>
-      <c r="D43" s="10">
-        <v>54.363</v>
-      </c>
-      <c r="E43" s="10">
-        <v>41.972000000000001</v>
-      </c>
-      <c r="F43" s="10">
-        <v>106.893</v>
-      </c>
-      <c r="G43" s="11">
-        <v>187.91900000000001</v>
-      </c>
-      <c r="H43" s="11">
-        <v>192.7</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J43" s="13">
-        <v>44153</v>
-      </c>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44">
-        <v>2700</v>
-      </c>
-      <c r="D44" s="10">
-        <v>57.2</v>
-      </c>
-      <c r="E44" s="10">
-        <v>43.731999999999999</v>
-      </c>
-      <c r="F44" s="10">
-        <v>107.95399999999999</v>
-      </c>
-      <c r="G44" s="11">
-        <v>196.6</v>
-      </c>
-      <c r="H44" s="11">
-        <v>194.6</v>
-      </c>
-      <c r="J44" s="13">
-        <v>44155</v>
       </c>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45">
+        <v>2112</v>
+      </c>
+      <c r="D45" s="10">
+        <v>61.249000000000002</v>
+      </c>
+      <c r="E45" s="10">
+        <v>46.226999999999997</v>
+      </c>
+      <c r="F45" s="10">
+        <v>113.619</v>
+      </c>
+      <c r="G45" s="11">
+        <v>209</v>
+      </c>
+      <c r="H45" s="11">
+        <v>204.9</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="J45" s="14">
+        <v>45298</v>
+      </c>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="20">
+        <v>2700</v>
+      </c>
+      <c r="D46" s="10">
+        <v>57.2</v>
+      </c>
+      <c r="E46" s="10">
+        <v>43.731999999999999</v>
+      </c>
+      <c r="F46" s="10">
+        <v>107.95399999999999</v>
+      </c>
+      <c r="G46" s="11">
+        <v>196.6</v>
+      </c>
+      <c r="H46" s="11">
+        <v>194.6</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J46" s="13">
+        <v>44155</v>
+      </c>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C45">
+      <c r="C47" s="20">
         <v>2600</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D47" s="10">
         <v>55.045999999999999</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E47" s="10">
         <v>44.618000000000002</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F47" s="10">
         <v>73.569999999999993</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G47" s="11">
         <v>195.6</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H47" s="11">
         <v>132.6</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J45" s="13">
+      <c r="I47" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J47" s="13">
         <v>43355</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="13"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="K47" s="7"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C46">
+      <c r="C48" s="20">
         <v>2600</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D48" s="10">
         <v>63.682000000000002</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E48" s="10">
         <v>45.731999999999999</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F48" s="10">
         <v>68.159000000000006</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G48" s="11">
         <v>211.2</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H48" s="11">
         <v>122.9</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="13">
+      <c r="I48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="13">
         <v>43146</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="13"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="K48" s="7"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C47">
+      <c r="C49" s="20">
         <v>2500</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D49" s="10">
         <v>50.423000000000002</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E49" s="10">
         <v>46.116999999999997</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F49" s="10">
         <v>70.039000000000001</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G49" s="11">
         <v>192</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H49" s="11">
         <v>126.3</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="13">
+      <c r="I49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="13">
         <v>43146</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="13"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="K49" s="5"/>
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50">
+        <v>3700</v>
+      </c>
+      <c r="D50" s="10">
+        <v>62.206000000000003</v>
+      </c>
+      <c r="E50" s="10">
+        <v>49.951000000000001</v>
+      </c>
+      <c r="F50" s="10">
+        <v>112.593</v>
+      </c>
+      <c r="G50" s="11">
+        <v>219.9</v>
+      </c>
+      <c r="H50" s="11">
+        <v>203</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50" s="13">
+        <v>45561</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>177</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>178</v>
       </c>
-      <c r="C48">
-        <v>3600</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="C51">
+        <v>4160</v>
+      </c>
+      <c r="D51" s="10">
         <v>77.174000000000007</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E51" s="10">
         <v>56.761000000000003</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F51" s="10">
         <v>138.00299999999999</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G51" s="11">
         <v>259.47000000000003</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H51" s="11">
         <v>248.81200000000001</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" s="14">
+      <c r="I51" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J51" s="14">
         <v>45211</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="13"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49">
-        <v>2667</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J49" s="13">
-        <v>43956</v>
-      </c>
-      <c r="L49" s="13"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F50" s="10"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F51" s="10"/>
-      <c r="J51" s="7"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J52" s="7"/>
+      <c r="A52" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="20">
+        <v>3200</v>
+      </c>
+      <c r="D52" s="22">
+        <v>66.938999999999993</v>
+      </c>
+      <c r="E52" s="22">
+        <v>79.733000000000004</v>
+      </c>
+      <c r="F52" s="22">
+        <v>216.304</v>
+      </c>
+      <c r="G52" s="23">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="H52" s="23">
+        <v>389.9</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="24">
+        <v>45561</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="13"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J53" s="7"/>
+      <c r="A53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53">
+        <v>4700</v>
+      </c>
+      <c r="D53" s="10">
+        <v>104.52500000000001</v>
+      </c>
+      <c r="E53" s="10">
+        <v>85.01</v>
+      </c>
+      <c r="F53" s="10">
+        <v>264.86900000000003</v>
+      </c>
+      <c r="G53" s="11">
+        <v>372.2</v>
+      </c>
+      <c r="H53" s="11">
+        <v>377.5</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J53" s="14">
+        <v>45561</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J54" s="7"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="13"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F55" s="10"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J58" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
-    <sortCondition ref="E2:E49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J53">
+    <sortCondition ref="E2:E53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8361,6 +8649,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -8369,22 +8673,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://pdadb.net/index.php?m=cpu&amp;id=a6422&amp;c=samsung_s5p6422" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/nbench/list2024.xlsx
+++ b/nbench/list2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\benchmark\nbench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk/Documents/GitHub/benchmark/nbench/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D4B20-EEAC-49BA-956B-203E16CA8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E64D6-9A02-384B-814F-6169D6222204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16995" yWindow="1995" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="5" r:id="rId1"/>
@@ -24,12 +24,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="222">
   <si>
     <t>CPU</t>
   </si>
@@ -692,6 +702,9 @@
   </si>
   <si>
     <t xml:space="preserve">MacBook Air 2020 </t>
+  </si>
+  <si>
+    <t>export</t>
   </si>
 </sst>
 </file>
@@ -804,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -838,6 +851,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,14 +866,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1139,28 +1148,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A198D7-6D1E-4BFD-BCE5-F3668492731D}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
@@ -1191,12 +1204,15 @@
       <c r="J1" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="L1" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C2">
@@ -1223,9 +1239,28 @@
       <c r="J2" s="13">
         <v>40892</v>
       </c>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="22">
+        <f>D2*1000</f>
+        <v>541</v>
+      </c>
+      <c r="M2" s="22">
+        <f>E2*1000</f>
+        <v>959</v>
+      </c>
+      <c r="N2" s="22">
+        <f>F2*1000</f>
+        <v>126</v>
+      </c>
+      <c r="O2" s="22">
+        <f>G2*1000</f>
+        <v>3000</v>
+      </c>
+      <c r="P2" s="22">
+        <f>H2*1000</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -1256,13 +1291,33 @@
       <c r="J3" s="13">
         <v>41122</v>
       </c>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="L3" s="22">
+        <f t="shared" ref="L3:L53" si="0">D3*1000</f>
+        <v>1238</v>
+      </c>
+      <c r="M3" s="22">
+        <f t="shared" ref="M3:M53" si="1">E3*1000</f>
+        <v>1330</v>
+      </c>
+      <c r="N3" s="22">
+        <f t="shared" ref="N3:N53" si="2">F3*1000</f>
+        <v>2409</v>
+      </c>
+      <c r="O3" s="22">
+        <f t="shared" ref="O3:O53" si="3">G3*1000</f>
+        <v>5100</v>
+      </c>
+      <c r="P3" s="22">
+        <f t="shared" ref="P3:P53" si="4">H3*1000</f>
+        <v>4300</v>
+      </c>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>146</v>
       </c>
       <c r="C4">
@@ -1289,9 +1344,29 @@
       <c r="J4" s="13">
         <v>41487</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="22">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="M4" s="22">
+        <f t="shared" si="1"/>
+        <v>1685</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="O4" s="22">
+        <f t="shared" si="3"/>
+        <v>5500</v>
+      </c>
+      <c r="P4" s="22">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1322,13 +1397,33 @@
       <c r="J5" s="13">
         <v>41489</v>
       </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>1379</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="1"/>
+        <v>1712</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="O5" s="22">
+        <f t="shared" si="3"/>
+        <v>6300</v>
+      </c>
+      <c r="P5" s="22">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>147</v>
       </c>
       <c r="C6">
@@ -1355,9 +1450,29 @@
       <c r="J6" s="13">
         <v>41122</v>
       </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="22">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="M6" s="22">
+        <f t="shared" si="1"/>
+        <v>1821</v>
+      </c>
+      <c r="N6" s="22">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="O6" s="22">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+      <c r="P6" s="22">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1386,13 +1501,33 @@
         <v>10</v>
       </c>
       <c r="J7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="L7" s="22">
+        <f t="shared" si="0"/>
+        <v>2456</v>
+      </c>
+      <c r="M7" s="22">
+        <f t="shared" si="1"/>
+        <v>3106</v>
+      </c>
+      <c r="N7" s="22">
+        <f t="shared" si="2"/>
+        <v>2029</v>
+      </c>
+      <c r="O7" s="22">
+        <f t="shared" si="3"/>
+        <v>11300</v>
+      </c>
+      <c r="P7" s="22">
+        <f t="shared" si="4"/>
+        <v>3660</v>
+      </c>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>143</v>
       </c>
       <c r="C8">
@@ -1419,16 +1554,36 @@
       <c r="J8" s="13">
         <v>41861</v>
       </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="L8" s="22">
+        <f t="shared" si="0"/>
+        <v>2748</v>
+      </c>
+      <c r="M8" s="22">
+        <f t="shared" si="1"/>
+        <v>3282</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="2"/>
+        <v>3711</v>
+      </c>
+      <c r="O8" s="22">
+        <f t="shared" si="3"/>
+        <v>12800</v>
+      </c>
+      <c r="P8" s="22">
+        <f t="shared" si="4"/>
+        <v>6690</v>
+      </c>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <v>933</v>
       </c>
       <c r="D9" s="10">
@@ -1452,13 +1607,33 @@
       <c r="J9" s="13">
         <v>41861</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="L9" s="22">
+        <f t="shared" si="0"/>
+        <v>4709</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" si="1"/>
+        <v>5164</v>
+      </c>
+      <c r="N9" s="22">
+        <f t="shared" si="2"/>
+        <v>8916</v>
+      </c>
+      <c r="O9" s="22">
+        <f t="shared" si="3"/>
+        <v>19900</v>
+      </c>
+      <c r="P9" s="22">
+        <f t="shared" si="4"/>
+        <v>16100.000000000002</v>
+      </c>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C10">
@@ -1485,9 +1660,29 @@
       <c r="J10" s="13">
         <v>41861</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="22">
+        <f t="shared" si="0"/>
+        <v>3665</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" si="1"/>
+        <v>5460</v>
+      </c>
+      <c r="N10" s="22">
+        <f t="shared" si="2"/>
+        <v>4685</v>
+      </c>
+      <c r="O10" s="22">
+        <f t="shared" si="3"/>
+        <v>18400</v>
+      </c>
+      <c r="P10" s="22">
+        <f t="shared" si="4"/>
+        <v>8450</v>
+      </c>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -1518,13 +1713,33 @@
       <c r="J11" s="13">
         <v>41861</v>
       </c>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="L11" s="22">
+        <f t="shared" si="0"/>
+        <v>4665</v>
+      </c>
+      <c r="M11" s="22">
+        <f t="shared" si="1"/>
+        <v>6481</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" si="2"/>
+        <v>5059</v>
+      </c>
+      <c r="O11" s="22">
+        <f t="shared" si="3"/>
+        <v>22600</v>
+      </c>
+      <c r="P11" s="22">
+        <f t="shared" si="4"/>
+        <v>9100</v>
+      </c>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C12">
@@ -1551,16 +1766,36 @@
       <c r="J12" s="13">
         <v>42217</v>
       </c>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="L12" s="22">
+        <f t="shared" si="0"/>
+        <v>5799</v>
+      </c>
+      <c r="M12" s="22">
+        <f t="shared" si="1"/>
+        <v>6717</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="2"/>
+        <v>8055</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" si="3"/>
+        <v>25300</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="4"/>
+        <v>14500</v>
+      </c>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>1200</v>
       </c>
       <c r="D13" s="10">
@@ -1584,16 +1819,36 @@
       <c r="J13" s="13">
         <v>41797</v>
       </c>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="L13" s="22">
+        <f t="shared" si="0"/>
+        <v>6210</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" si="1"/>
+        <v>7047</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="2"/>
+        <v>12384</v>
+      </c>
+      <c r="O13" s="22">
+        <f t="shared" si="3"/>
+        <v>26400</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="4"/>
+        <v>22000</v>
+      </c>
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>1666</v>
       </c>
       <c r="D14" s="10">
@@ -1617,9 +1872,29 @@
       <c r="J14" s="13">
         <v>40269</v>
       </c>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="22">
+        <f t="shared" si="0"/>
+        <v>7243</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="1"/>
+        <v>7109</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="2"/>
+        <v>7351</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" si="3"/>
+        <v>28600</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="4"/>
+        <v>12800</v>
+      </c>
+      <c r="Q14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -1650,16 +1925,36 @@
       <c r="J15" s="13">
         <v>40017</v>
       </c>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="L15" s="22">
+        <f t="shared" si="0"/>
+        <v>9394</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" si="1"/>
+        <v>7529</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="2"/>
+        <v>13164</v>
+      </c>
+      <c r="O15" s="22">
+        <f t="shared" si="3"/>
+        <v>33200</v>
+      </c>
+      <c r="P15" s="22">
+        <f t="shared" si="4"/>
+        <v>23700</v>
+      </c>
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>1600</v>
       </c>
       <c r="D16" s="10">
@@ -1683,16 +1978,36 @@
       <c r="J16" s="13">
         <v>40026</v>
       </c>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="L16" s="22">
+        <f t="shared" si="0"/>
+        <v>7752</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="1"/>
+        <v>7579</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="2"/>
+        <v>7068</v>
+      </c>
+      <c r="O16" s="22">
+        <f t="shared" si="3"/>
+        <v>30600</v>
+      </c>
+      <c r="P16" s="22">
+        <f t="shared" si="4"/>
+        <v>12800</v>
+      </c>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <v>1666</v>
       </c>
       <c r="D17" s="10">
@@ -1716,9 +2031,29 @@
       <c r="J17" s="13">
         <v>41496</v>
       </c>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="22">
+        <f t="shared" si="0"/>
+        <v>9386</v>
+      </c>
+      <c r="M17" s="22">
+        <f t="shared" si="1"/>
+        <v>8390</v>
+      </c>
+      <c r="N17" s="22">
+        <f t="shared" si="2"/>
+        <v>7313</v>
+      </c>
+      <c r="O17" s="22">
+        <f t="shared" si="3"/>
+        <v>35300</v>
+      </c>
+      <c r="P17" s="22">
+        <f t="shared" si="4"/>
+        <v>13200</v>
+      </c>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>214</v>
       </c>
@@ -1749,13 +2084,33 @@
       <c r="J18" s="13">
         <v>45298</v>
       </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="L18" s="22">
+        <f t="shared" si="0"/>
+        <v>6780</v>
+      </c>
+      <c r="M18" s="22">
+        <f t="shared" si="1"/>
+        <v>9524</v>
+      </c>
+      <c r="N18" s="22">
+        <f t="shared" si="2"/>
+        <v>9174</v>
+      </c>
+      <c r="O18" s="22">
+        <f t="shared" si="3"/>
+        <v>33000</v>
+      </c>
+      <c r="P18" s="22">
+        <f t="shared" si="4"/>
+        <v>16500</v>
+      </c>
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C19">
@@ -1782,9 +2137,29 @@
       <c r="J19" s="13">
         <v>42031</v>
       </c>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="22">
+        <f t="shared" si="0"/>
+        <v>4591</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="1"/>
+        <v>9895</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="2"/>
+        <v>9086</v>
+      </c>
+      <c r="O19" s="22">
+        <f t="shared" si="3"/>
+        <v>28500</v>
+      </c>
+      <c r="P19" s="22">
+        <f t="shared" si="4"/>
+        <v>16400</v>
+      </c>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -1815,9 +2190,29 @@
       <c r="J20" s="13">
         <v>45319</v>
       </c>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="22">
+        <f t="shared" si="0"/>
+        <v>8680</v>
+      </c>
+      <c r="M20" s="22">
+        <f t="shared" si="1"/>
+        <v>10948</v>
+      </c>
+      <c r="N20" s="22">
+        <f t="shared" si="2"/>
+        <v>10155</v>
+      </c>
+      <c r="O20" s="22">
+        <f t="shared" si="3"/>
+        <v>39718</v>
+      </c>
+      <c r="P20" s="22">
+        <f t="shared" si="4"/>
+        <v>18310</v>
+      </c>
+      <c r="Q20" s="22"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -1848,16 +2243,36 @@
       <c r="J21" s="13">
         <v>40672</v>
       </c>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="L21" s="22">
+        <f t="shared" si="0"/>
+        <v>11269</v>
+      </c>
+      <c r="M21" s="22">
+        <f t="shared" si="1"/>
+        <v>11927</v>
+      </c>
+      <c r="N21" s="22">
+        <f t="shared" si="2"/>
+        <v>20517</v>
+      </c>
+      <c r="O21" s="22">
+        <f t="shared" si="3"/>
+        <v>46600</v>
+      </c>
+      <c r="P21" s="22">
+        <f t="shared" si="4"/>
+        <v>37000</v>
+      </c>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="16">
         <v>2000</v>
       </c>
       <c r="D22" s="10">
@@ -1881,16 +2296,36 @@
       <c r="J22" s="13">
         <v>39919</v>
       </c>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="L22" s="22">
+        <f t="shared" si="0"/>
+        <v>12138</v>
+      </c>
+      <c r="M22" s="22">
+        <f t="shared" si="1"/>
+        <v>12568</v>
+      </c>
+      <c r="N22" s="22">
+        <f t="shared" si="2"/>
+        <v>21144</v>
+      </c>
+      <c r="O22" s="22">
+        <f t="shared" si="3"/>
+        <v>49600</v>
+      </c>
+      <c r="P22" s="22">
+        <f t="shared" si="4"/>
+        <v>38100</v>
+      </c>
+      <c r="Q22" s="22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <v>1860</v>
       </c>
       <c r="D23" s="10">
@@ -1914,9 +2349,29 @@
       <c r="J23" s="13">
         <v>41788</v>
       </c>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="22">
+        <f t="shared" si="0"/>
+        <v>18433</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="1"/>
+        <v>15150</v>
+      </c>
+      <c r="N23" s="22">
+        <f t="shared" si="2"/>
+        <v>16636</v>
+      </c>
+      <c r="O23" s="22">
+        <f t="shared" si="3"/>
+        <v>66000</v>
+      </c>
+      <c r="P23" s="22">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="Q23" s="22"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -1947,16 +2402,36 @@
       <c r="J24" s="13">
         <v>40672</v>
       </c>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="L24" s="22">
+        <f t="shared" si="0"/>
+        <v>13595</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="1"/>
+        <v>16120.999999999998</v>
+      </c>
+      <c r="N24" s="22">
+        <f t="shared" si="2"/>
+        <v>19566</v>
+      </c>
+      <c r="O24" s="22">
+        <f t="shared" si="3"/>
+        <v>59900</v>
+      </c>
+      <c r="P24" s="22">
+        <f t="shared" si="4"/>
+        <v>35300</v>
+      </c>
+      <c r="Q24" s="22"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="16">
         <v>1580</v>
       </c>
       <c r="D25" s="10">
@@ -1980,16 +2455,36 @@
       <c r="J25" s="13">
         <v>41851</v>
       </c>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="L25" s="22">
+        <f t="shared" si="0"/>
+        <v>19981</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" si="1"/>
+        <v>16207</v>
+      </c>
+      <c r="N25" s="22">
+        <f t="shared" si="2"/>
+        <v>18001</v>
+      </c>
+      <c r="O25" s="22">
+        <f t="shared" si="3"/>
+        <v>71000</v>
+      </c>
+      <c r="P25" s="22">
+        <f t="shared" si="4"/>
+        <v>32500</v>
+      </c>
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="16">
         <v>1299</v>
       </c>
       <c r="D26" s="10">
@@ -2013,9 +2508,29 @@
       <c r="J26" s="13">
         <v>41861</v>
       </c>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="22">
+        <f t="shared" si="0"/>
+        <v>19051</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="1"/>
+        <v>17286</v>
+      </c>
+      <c r="N26" s="22">
+        <f t="shared" si="2"/>
+        <v>25289</v>
+      </c>
+      <c r="O26" s="22">
+        <f t="shared" si="3"/>
+        <v>72200</v>
+      </c>
+      <c r="P26" s="22">
+        <f t="shared" si="4"/>
+        <v>45600</v>
+      </c>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -2046,13 +2561,33 @@
       <c r="J27" s="13">
         <v>41457</v>
       </c>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="L27" s="22">
+        <f t="shared" si="0"/>
+        <v>28488</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="1"/>
+        <v>17781</v>
+      </c>
+      <c r="N27" s="22">
+        <f t="shared" si="2"/>
+        <v>36673</v>
+      </c>
+      <c r="O27" s="22">
+        <f t="shared" si="3"/>
+        <v>87200</v>
+      </c>
+      <c r="P27" s="22">
+        <f t="shared" si="4"/>
+        <v>66100</v>
+      </c>
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="17" t="s">
         <v>123</v>
       </c>
       <c r="C28">
@@ -2079,16 +2614,36 @@
       <c r="J28" s="13">
         <v>44089</v>
       </c>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="L28" s="22">
+        <f t="shared" si="0"/>
+        <v>23695</v>
+      </c>
+      <c r="M28" s="22">
+        <f t="shared" si="1"/>
+        <v>17817</v>
+      </c>
+      <c r="N28" s="22">
+        <f t="shared" si="2"/>
+        <v>25516</v>
+      </c>
+      <c r="O28" s="22">
+        <f t="shared" si="3"/>
+        <v>80700</v>
+      </c>
+      <c r="P28" s="22">
+        <f t="shared" si="4"/>
+        <v>46000</v>
+      </c>
+      <c r="Q28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="16">
         <v>1400</v>
       </c>
       <c r="D29" s="10">
@@ -2112,9 +2667,29 @@
       <c r="J29" s="13">
         <v>43641</v>
       </c>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="22">
+        <f t="shared" si="0"/>
+        <v>18776</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" si="1"/>
+        <v>17878</v>
+      </c>
+      <c r="N29" s="22">
+        <f t="shared" si="2"/>
+        <v>29106</v>
+      </c>
+      <c r="O29" s="22">
+        <f t="shared" si="3"/>
+        <v>73200</v>
+      </c>
+      <c r="P29" s="22">
+        <f t="shared" si="4"/>
+        <v>52500</v>
+      </c>
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>212</v>
       </c>
@@ -2145,9 +2720,29 @@
       <c r="J30" s="13">
         <v>45561</v>
       </c>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="22">
+        <f t="shared" si="0"/>
+        <v>15319</v>
+      </c>
+      <c r="M30" s="22">
+        <f t="shared" si="1"/>
+        <v>18061</v>
+      </c>
+      <c r="N30" s="22">
+        <f t="shared" si="2"/>
+        <v>34620</v>
+      </c>
+      <c r="O30" s="22">
+        <f t="shared" si="3"/>
+        <v>67400</v>
+      </c>
+      <c r="P30" s="22">
+        <f t="shared" si="4"/>
+        <v>62400</v>
+      </c>
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -2178,9 +2773,29 @@
       <c r="J31" s="13">
         <v>41151</v>
       </c>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="22">
+        <f t="shared" si="0"/>
+        <v>18265</v>
+      </c>
+      <c r="M31" s="22">
+        <f t="shared" si="1"/>
+        <v>18958</v>
+      </c>
+      <c r="N31" s="22">
+        <f t="shared" si="2"/>
+        <v>31843</v>
+      </c>
+      <c r="O31" s="22">
+        <f t="shared" si="3"/>
+        <v>74800</v>
+      </c>
+      <c r="P31" s="22">
+        <f t="shared" si="4"/>
+        <v>57400</v>
+      </c>
+      <c r="Q31" s="22"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -2211,16 +2826,36 @@
       <c r="J32" s="13">
         <v>40060</v>
       </c>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="L32" s="22">
+        <f t="shared" si="0"/>
+        <v>14395</v>
+      </c>
+      <c r="M32" s="22">
+        <f t="shared" si="1"/>
+        <v>19299</v>
+      </c>
+      <c r="N32" s="22">
+        <f t="shared" si="2"/>
+        <v>23132</v>
+      </c>
+      <c r="O32" s="22">
+        <f t="shared" si="3"/>
+        <v>68200</v>
+      </c>
+      <c r="P32" s="22">
+        <f t="shared" si="4"/>
+        <v>41700</v>
+      </c>
+      <c r="Q32" s="22"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <v>2266</v>
       </c>
       <c r="D33" s="10">
@@ -2244,16 +2879,36 @@
       <c r="J33" s="13">
         <v>42713</v>
       </c>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="L33" s="22">
+        <f t="shared" si="0"/>
+        <v>28631</v>
+      </c>
+      <c r="M33" s="22">
+        <f t="shared" si="1"/>
+        <v>19781</v>
+      </c>
+      <c r="N33" s="22">
+        <f t="shared" si="2"/>
+        <v>31141</v>
+      </c>
+      <c r="O33" s="22">
+        <f t="shared" si="3"/>
+        <v>92900</v>
+      </c>
+      <c r="P33" s="22">
+        <f t="shared" si="4"/>
+        <v>56100</v>
+      </c>
+      <c r="Q33" s="22"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="16">
         <v>2043</v>
       </c>
       <c r="D34" s="10">
@@ -2277,9 +2932,29 @@
       <c r="J34" s="13">
         <v>41919</v>
       </c>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="22">
+        <f t="shared" si="0"/>
+        <v>19359</v>
+      </c>
+      <c r="M34" s="22">
+        <f t="shared" si="1"/>
+        <v>19808</v>
+      </c>
+      <c r="N34" s="22">
+        <f t="shared" si="2"/>
+        <v>33182</v>
+      </c>
+      <c r="O34" s="22">
+        <f t="shared" si="3"/>
+        <v>78600</v>
+      </c>
+      <c r="P34" s="22">
+        <f t="shared" si="4"/>
+        <v>59800</v>
+      </c>
+      <c r="Q34" s="22"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -2310,9 +2985,29 @@
       <c r="J35" s="13">
         <v>42443</v>
       </c>
-      <c r="L35" s="13"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="22">
+        <f t="shared" si="0"/>
+        <v>33671</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="1"/>
+        <v>23584</v>
+      </c>
+      <c r="N35" s="22">
+        <f t="shared" si="2"/>
+        <v>36384</v>
+      </c>
+      <c r="O35" s="22">
+        <f t="shared" si="3"/>
+        <v>110100</v>
+      </c>
+      <c r="P35" s="22">
+        <f t="shared" si="4"/>
+        <v>65600</v>
+      </c>
+      <c r="Q35" s="22"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -2344,9 +3039,29 @@
         <v>44691</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="13"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="22">
+        <f t="shared" si="0"/>
+        <v>28776</v>
+      </c>
+      <c r="M36" s="22">
+        <f t="shared" si="1"/>
+        <v>23881</v>
+      </c>
+      <c r="N36" s="22">
+        <f t="shared" si="2"/>
+        <v>47396</v>
+      </c>
+      <c r="O36" s="22">
+        <f t="shared" si="3"/>
+        <v>103658</v>
+      </c>
+      <c r="P36" s="22">
+        <f t="shared" si="4"/>
+        <v>85453</v>
+      </c>
+      <c r="Q36" s="22"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -2377,9 +3092,29 @@
       <c r="J37" s="13">
         <v>41537</v>
       </c>
-      <c r="L37" s="13"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="22">
+        <f t="shared" si="0"/>
+        <v>37846</v>
+      </c>
+      <c r="M37" s="22">
+        <f t="shared" si="1"/>
+        <v>23882</v>
+      </c>
+      <c r="N37" s="22">
+        <f t="shared" si="2"/>
+        <v>47437</v>
+      </c>
+      <c r="O37" s="22">
+        <f t="shared" si="3"/>
+        <v>116600</v>
+      </c>
+      <c r="P37" s="22">
+        <f t="shared" si="4"/>
+        <v>85500</v>
+      </c>
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -2410,9 +3145,29 @@
       <c r="J38" s="13">
         <v>40683</v>
       </c>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="22">
+        <f t="shared" si="0"/>
+        <v>24206</v>
+      </c>
+      <c r="M38" s="22">
+        <f t="shared" si="1"/>
+        <v>24602</v>
+      </c>
+      <c r="N38" s="22">
+        <f t="shared" si="2"/>
+        <v>41085</v>
+      </c>
+      <c r="O38" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P38" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q38" s="22"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>186</v>
       </c>
@@ -2443,9 +3198,29 @@
       <c r="J39" s="13">
         <v>39896</v>
       </c>
-      <c r="L39" s="13"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="22">
+        <f t="shared" si="0"/>
+        <v>21476</v>
+      </c>
+      <c r="M39" s="22">
+        <f t="shared" si="1"/>
+        <v>25608</v>
+      </c>
+      <c r="N39" s="22">
+        <f t="shared" si="2"/>
+        <v>30663</v>
+      </c>
+      <c r="O39" s="22">
+        <f t="shared" si="3"/>
+        <v>95200</v>
+      </c>
+      <c r="P39" s="22">
+        <f t="shared" si="4"/>
+        <v>55300</v>
+      </c>
+      <c r="Q39" s="22"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -2476,9 +3251,29 @@
       <c r="J40" s="13">
         <v>43956</v>
       </c>
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="22">
+        <f t="shared" si="0"/>
+        <v>27461</v>
+      </c>
+      <c r="M40" s="22">
+        <f t="shared" si="1"/>
+        <v>26342</v>
+      </c>
+      <c r="N40" s="22">
+        <f t="shared" si="2"/>
+        <v>27894</v>
+      </c>
+      <c r="O40" s="22">
+        <f t="shared" si="3"/>
+        <v>107500</v>
+      </c>
+      <c r="P40" s="22">
+        <f t="shared" si="4"/>
+        <v>86400</v>
+      </c>
+      <c r="Q40" s="22"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -2509,16 +3304,36 @@
       <c r="J41" s="13">
         <v>42315</v>
       </c>
-      <c r="L41" s="13"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="L41" s="22">
+        <f t="shared" si="0"/>
+        <v>28022</v>
+      </c>
+      <c r="M41" s="22">
+        <f t="shared" si="1"/>
+        <v>32586</v>
+      </c>
+      <c r="N41" s="22">
+        <f t="shared" si="2"/>
+        <v>44104</v>
+      </c>
+      <c r="O41" s="22">
+        <f t="shared" si="3"/>
+        <v>122400</v>
+      </c>
+      <c r="P41" s="22">
+        <f t="shared" si="4"/>
+        <v>79200</v>
+      </c>
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="16">
         <v>2300</v>
       </c>
       <c r="D42" s="10">
@@ -2542,16 +3357,36 @@
       <c r="J42" s="13">
         <v>42397</v>
       </c>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="L42" s="22">
+        <f t="shared" si="0"/>
+        <v>39050</v>
+      </c>
+      <c r="M42" s="22">
+        <f t="shared" si="1"/>
+        <v>33215</v>
+      </c>
+      <c r="N42" s="22">
+        <f t="shared" si="2"/>
+        <v>54260</v>
+      </c>
+      <c r="O42" s="22">
+        <f t="shared" si="3"/>
+        <v>142700</v>
+      </c>
+      <c r="P42" s="22">
+        <f t="shared" si="4"/>
+        <v>97800</v>
+      </c>
+      <c r="Q42" s="22"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="16">
         <v>2500</v>
       </c>
       <c r="D43" s="10">
@@ -2575,16 +3410,36 @@
       <c r="J43" s="13">
         <v>42397</v>
       </c>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="L43" s="22">
+        <f t="shared" si="0"/>
+        <v>40699</v>
+      </c>
+      <c r="M43" s="22">
+        <f t="shared" si="1"/>
+        <v>37018</v>
+      </c>
+      <c r="N43" s="22">
+        <f t="shared" si="2"/>
+        <v>52635</v>
+      </c>
+      <c r="O43" s="22">
+        <f t="shared" si="3"/>
+        <v>154500</v>
+      </c>
+      <c r="P43" s="22">
+        <f t="shared" si="4"/>
+        <v>94900</v>
+      </c>
+      <c r="Q43" s="22"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="16">
         <v>2600</v>
       </c>
       <c r="D44" s="10">
@@ -2608,9 +3463,29 @@
       <c r="J44" s="13">
         <v>42817</v>
       </c>
-      <c r="L44" s="13"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="22">
+        <f t="shared" si="0"/>
+        <v>45382</v>
+      </c>
+      <c r="M44" s="22">
+        <f t="shared" si="1"/>
+        <v>40313</v>
+      </c>
+      <c r="N44" s="22">
+        <f t="shared" si="2"/>
+        <v>61804</v>
+      </c>
+      <c r="O44" s="22">
+        <f t="shared" si="3"/>
+        <v>169900</v>
+      </c>
+      <c r="P44" s="22">
+        <f t="shared" si="4"/>
+        <v>111400</v>
+      </c>
+      <c r="Q44" s="22"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -2641,16 +3516,36 @@
       <c r="J45" s="14">
         <v>45298</v>
       </c>
-      <c r="L45" s="13"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="L45" s="22">
+        <f t="shared" si="0"/>
+        <v>61249</v>
+      </c>
+      <c r="M45" s="22">
+        <f t="shared" si="1"/>
+        <v>46227</v>
+      </c>
+      <c r="N45" s="22">
+        <f t="shared" si="2"/>
+        <v>113619</v>
+      </c>
+      <c r="O45" s="22">
+        <f t="shared" si="3"/>
+        <v>209000</v>
+      </c>
+      <c r="P45" s="22">
+        <f t="shared" si="4"/>
+        <v>204900</v>
+      </c>
+      <c r="Q45" s="22"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="16">
         <v>2700</v>
       </c>
       <c r="D46" s="10">
@@ -2674,16 +3569,36 @@
       <c r="J46" s="13">
         <v>44155</v>
       </c>
-      <c r="L46" s="13"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="L46" s="22">
+        <f t="shared" si="0"/>
+        <v>57200</v>
+      </c>
+      <c r="M46" s="22">
+        <f t="shared" si="1"/>
+        <v>43732</v>
+      </c>
+      <c r="N46" s="22">
+        <f t="shared" si="2"/>
+        <v>107954</v>
+      </c>
+      <c r="O46" s="22">
+        <f t="shared" si="3"/>
+        <v>196600</v>
+      </c>
+      <c r="P46" s="22">
+        <f t="shared" si="4"/>
+        <v>194600</v>
+      </c>
+      <c r="Q46" s="22"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="16">
         <v>2600</v>
       </c>
       <c r="D47" s="10">
@@ -2708,16 +3623,36 @@
         <v>43355</v>
       </c>
       <c r="K47" s="7"/>
-      <c r="L47" s="13"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="L47" s="22">
+        <f t="shared" si="0"/>
+        <v>55046</v>
+      </c>
+      <c r="M47" s="22">
+        <f t="shared" si="1"/>
+        <v>44618</v>
+      </c>
+      <c r="N47" s="22">
+        <f t="shared" si="2"/>
+        <v>73570</v>
+      </c>
+      <c r="O47" s="22">
+        <f t="shared" si="3"/>
+        <v>195600</v>
+      </c>
+      <c r="P47" s="22">
+        <f t="shared" si="4"/>
+        <v>132600</v>
+      </c>
+      <c r="Q47" s="22"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="16">
         <v>2600</v>
       </c>
       <c r="D48" s="10">
@@ -2742,16 +3677,36 @@
         <v>43146</v>
       </c>
       <c r="K48" s="7"/>
-      <c r="L48" s="13"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="L48" s="22">
+        <f t="shared" si="0"/>
+        <v>63682</v>
+      </c>
+      <c r="M48" s="22">
+        <f t="shared" si="1"/>
+        <v>45732</v>
+      </c>
+      <c r="N48" s="22">
+        <f t="shared" si="2"/>
+        <v>68159</v>
+      </c>
+      <c r="O48" s="22">
+        <f t="shared" si="3"/>
+        <v>211200</v>
+      </c>
+      <c r="P48" s="22">
+        <f t="shared" si="4"/>
+        <v>122900</v>
+      </c>
+      <c r="Q48" s="22"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="16">
         <v>2500</v>
       </c>
       <c r="D49" s="10">
@@ -2776,9 +3731,29 @@
         <v>43146</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="13"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L49" s="22">
+        <f t="shared" si="0"/>
+        <v>50423</v>
+      </c>
+      <c r="M49" s="22">
+        <f t="shared" si="1"/>
+        <v>46117</v>
+      </c>
+      <c r="N49" s="22">
+        <f t="shared" si="2"/>
+        <v>70039</v>
+      </c>
+      <c r="O49" s="22">
+        <f t="shared" si="3"/>
+        <v>192000</v>
+      </c>
+      <c r="P49" s="22">
+        <f t="shared" si="4"/>
+        <v>126300</v>
+      </c>
+      <c r="Q49" s="22"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -2810,9 +3785,29 @@
         <v>45561</v>
       </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="13"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="22">
+        <f t="shared" si="0"/>
+        <v>62206</v>
+      </c>
+      <c r="M50" s="22">
+        <f t="shared" si="1"/>
+        <v>49951</v>
+      </c>
+      <c r="N50" s="22">
+        <f t="shared" si="2"/>
+        <v>112593</v>
+      </c>
+      <c r="O50" s="22">
+        <f t="shared" si="3"/>
+        <v>219900</v>
+      </c>
+      <c r="P50" s="22">
+        <f t="shared" si="4"/>
+        <v>203000</v>
+      </c>
+      <c r="Q50" s="22"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -2844,43 +3839,83 @@
         <v>45211</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="13"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="L51" s="22">
+        <f t="shared" si="0"/>
+        <v>77174</v>
+      </c>
+      <c r="M51" s="22">
+        <f t="shared" si="1"/>
+        <v>56761</v>
+      </c>
+      <c r="N51" s="22">
+        <f t="shared" si="2"/>
+        <v>138003</v>
+      </c>
+      <c r="O51" s="22">
+        <f t="shared" si="3"/>
+        <v>259470.00000000003</v>
+      </c>
+      <c r="P51" s="22">
+        <f t="shared" si="4"/>
+        <v>248812</v>
+      </c>
+      <c r="Q51" s="22"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="16">
         <v>3200</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="10">
         <v>66.938999999999993</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="10">
         <v>79.733000000000004</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="10">
         <v>216.304</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="11">
         <v>296.39999999999998</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="11">
         <v>389.9</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="14">
         <v>45561</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="13"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="22">
+        <f t="shared" si="0"/>
+        <v>66939</v>
+      </c>
+      <c r="M52" s="22">
+        <f t="shared" si="1"/>
+        <v>79733</v>
+      </c>
+      <c r="N52" s="22">
+        <f t="shared" si="2"/>
+        <v>216304</v>
+      </c>
+      <c r="O52" s="22">
+        <f t="shared" si="3"/>
+        <v>296400</v>
+      </c>
+      <c r="P52" s="22">
+        <f t="shared" si="4"/>
+        <v>389900</v>
+      </c>
+      <c r="Q52" s="22"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>184</v>
       </c>
@@ -2912,9 +3947,29 @@
         <v>45561</v>
       </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="13"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="22">
+        <f t="shared" si="0"/>
+        <v>104525</v>
+      </c>
+      <c r="M53" s="22">
+        <f t="shared" si="1"/>
+        <v>85010</v>
+      </c>
+      <c r="N53" s="22">
+        <f t="shared" si="2"/>
+        <v>264869</v>
+      </c>
+      <c r="O53" s="22">
+        <f t="shared" si="3"/>
+        <v>372200</v>
+      </c>
+      <c r="P53" s="22">
+        <f t="shared" si="4"/>
+        <v>377500</v>
+      </c>
+      <c r="Q53" s="22"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -2923,17 +3978,17 @@
       <c r="I54" s="8"/>
       <c r="J54" s="13"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F55" s="10"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J58" s="7"/>
     </row>
   </sheetData>
@@ -2954,21 +4009,21 @@
       <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
@@ -3000,7 +4055,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -3032,7 +4087,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -3064,7 +4119,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -3096,7 +4151,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -3128,7 +4183,7 @@
         <v>41489</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -3160,7 +4215,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -3190,7 +4245,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -3222,7 +4277,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -3254,7 +4309,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -3286,7 +4341,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -3318,7 +4373,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -3350,7 +4405,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -3382,7 +4437,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -3414,7 +4469,7 @@
         <v>40269</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -3446,7 +4501,7 @@
         <v>40017</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -3478,7 +4533,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -3510,7 +4565,7 @@
         <v>41496</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -3542,7 +4597,7 @@
         <v>42031</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3574,7 +4629,7 @@
         <v>40672</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -3606,7 +4661,7 @@
         <v>39919</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -3638,7 +4693,7 @@
         <v>41788</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3670,7 +4725,7 @@
         <v>40672</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -3702,7 +4757,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -3734,7 +4789,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -3766,7 +4821,7 @@
         <v>41457</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -3798,7 +4853,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -3830,7 +4885,7 @@
         <v>43641</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -3862,7 +4917,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -3894,7 +4949,7 @@
         <v>40060</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -3926,7 +4981,7 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -3958,7 +5013,7 @@
         <v>41919</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -3990,7 +5045,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -4023,7 +5078,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -4055,7 +5110,7 @@
         <v>41537</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -4087,7 +5142,7 @@
         <v>40683</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4119,7 +5174,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -4151,7 +5206,7 @@
         <v>42315</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -4183,7 +5238,7 @@
         <v>42315</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -4215,7 +5270,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -4247,7 +5302,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -4279,7 +5334,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>165</v>
       </c>
@@ -4311,7 +5366,7 @@
         <v>44153</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -4340,7 +5395,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -4373,7 +5428,7 @@
       </c>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -4406,7 +5461,7 @@
       </c>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -4439,7 +5494,7 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>167</v>
       </c>
@@ -4462,7 +5517,7 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -4494,23 +5549,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F49" s="10"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F50" s="10"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:10" x14ac:dyDescent="0.2">
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:10" x14ac:dyDescent="0.2">
       <c r="J53" s="7"/>
     </row>
   </sheetData>
@@ -4527,21 +5582,21 @@
       <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
@@ -4573,7 +5628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -4605,7 +5660,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4637,7 +5692,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -4669,7 +5724,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -4701,7 +5756,7 @@
         <v>41489</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -4733,7 +5788,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -4763,7 +5818,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -4795,7 +5850,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -4827,7 +5882,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -4859,7 +5914,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -4891,7 +5946,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -4923,7 +5978,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -4955,7 +6010,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4987,7 +6042,7 @@
         <v>40269</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -5019,7 +6074,7 @@
         <v>40017</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -5051,7 +6106,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -5083,7 +6138,7 @@
         <v>41496</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -5115,7 +6170,7 @@
         <v>42031</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -5147,7 +6202,7 @@
         <v>40672</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -5179,7 +6234,7 @@
         <v>39919</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -5211,7 +6266,7 @@
         <v>41788</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -5243,7 +6298,7 @@
         <v>40672</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -5275,7 +6330,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -5307,7 +6362,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -5339,7 +6394,7 @@
         <v>41457</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -5371,7 +6426,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -5403,7 +6458,7 @@
         <v>43641</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -5435,7 +6490,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -5467,7 +6522,7 @@
         <v>40060</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -5499,7 +6554,7 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -5531,7 +6586,7 @@
         <v>41919</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -5563,7 +6618,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -5596,7 +6651,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -5628,7 +6683,7 @@
         <v>41537</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -5660,7 +6715,7 @@
         <v>40683</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -5692,7 +6747,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -5724,7 +6779,7 @@
         <v>42315</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -5756,7 +6811,7 @@
         <v>42315</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -5788,7 +6843,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -5820,7 +6875,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -5852,7 +6907,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>165</v>
       </c>
@@ -5884,7 +6939,7 @@
         <v>44153</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -5913,7 +6968,7 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -5946,7 +7001,7 @@
       </c>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -5979,7 +7034,7 @@
       </c>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -6012,7 +7067,7 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>167</v>
       </c>
@@ -6030,22 +7085,22 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="7"/>
     </row>
   </sheetData>
@@ -6061,21 +7116,21 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
@@ -6107,7 +7162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -6139,7 +7194,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -6171,7 +7226,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -6203,7 +7258,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -6235,7 +7290,7 @@
         <v>41489</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -6267,7 +7322,7 @@
         <v>41122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -6297,7 +7352,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -6329,7 +7384,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -6361,7 +7416,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -6393,7 +7448,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -6425,7 +7480,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -6457,7 +7512,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6489,7 +7544,7 @@
         <v>41797</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -6521,7 +7576,7 @@
         <v>40269</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -6553,7 +7608,7 @@
         <v>40017</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -6585,7 +7640,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -6617,7 +7672,7 @@
         <v>41496</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -6649,7 +7704,7 @@
         <v>42031</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -6681,7 +7736,7 @@
         <v>40672</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -6713,7 +7768,7 @@
         <v>39919</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -6745,7 +7800,7 @@
         <v>41788</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -6777,7 +7832,7 @@
         <v>40672</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -6809,7 +7864,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>112</v>
       </c>
@@ -6841,7 +7896,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -6873,7 +7928,7 @@
         <v>41457</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -6905,7 +7960,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -6937,7 +7992,7 @@
         <v>43641</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -6969,7 +8024,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -7001,7 +8056,7 @@
         <v>40060</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -7033,7 +8088,7 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -7065,7 +8120,7 @@
         <v>41919</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -7097,7 +8152,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -7129,7 +8184,7 @@
         <v>41537</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -7161,7 +8216,7 @@
         <v>40683</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -7193,7 +8248,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -7225,7 +8280,7 @@
         <v>42315</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -7257,7 +8312,7 @@
         <v>42315</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -7289,7 +8344,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -7321,7 +8376,7 @@
         <v>42397</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>141</v>
       </c>
@@ -7353,7 +8408,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -7385,7 +8440,7 @@
         <v>44153</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -7418,7 +8473,7 @@
       </c>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -7451,7 +8506,7 @@
       </c>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -7484,7 +8539,7 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -7502,7 +8557,7 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>165</v>
       </c>
@@ -7526,19 +8581,19 @@
       </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" s="7"/>
     </row>
   </sheetData>
@@ -7557,19 +8612,19 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7581,18 +8636,18 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7602,13 +8657,13 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -7631,7 +8686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -7654,7 +8709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -7677,7 +8732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7700,7 +8755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -7723,7 +8778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -7746,75 +8801,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="20">
         <v>2.7480000000000002</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="20">
         <v>3.282</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="20">
         <v>3.7109999999999999</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="21">
         <v>12.8</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="21">
         <v>6.69</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="20">
         <v>3.665</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="20">
         <v>5.46</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="20">
         <v>4.6849999999999996</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="21">
         <v>18.399999999999999</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="21">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -7837,7 +8892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -7860,7 +8915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -7883,7 +8938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -7906,7 +8961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -7929,7 +8984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -7952,41 +9007,41 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="20">
         <v>4.5910000000000002</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="20">
         <v>9.8949999999999996</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="20">
         <v>9.0860000000000003</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="21">
         <v>28.5</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="21">
         <v>16.399999999999999</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -8009,7 +9064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -8032,7 +9087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -8055,7 +9110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -8078,7 +9133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -8101,7 +9156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -8124,7 +9179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -8147,7 +9202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -8170,7 +9225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
@@ -8193,7 +9248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -8216,7 +9271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -8239,7 +9294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -8262,7 +9317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
@@ -8285,7 +9340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>55</v>
       </c>
@@ -8308,7 +9363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
@@ -8331,7 +9386,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -8354,7 +9409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -8377,7 +9432,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
@@ -8400,7 +9455,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>65</v>
       </c>
@@ -8423,7 +9478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
@@ -8446,7 +9501,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>68</v>
       </c>
@@ -8469,7 +9524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
@@ -8492,7 +9547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -8515,7 +9570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>72</v>
       </c>
@@ -8538,7 +9593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>74</v>
       </c>
@@ -8561,7 +9616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>75</v>
       </c>
@@ -8584,7 +9639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
@@ -8607,8 +9662,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -8620,18 +9675,18 @@
       <c r="D48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
       <c r="B49" s="1" t="s">
         <v>2</v>
       </c>
@@ -8641,14 +9696,30 @@
       <c r="D49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:F49"/>
@@ -8657,22 +9728,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://pdadb.net/index.php?m=cpu&amp;id=a6422&amp;c=samsung_s5p6422" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
